--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema4d-Met.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema4d-Met.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1349983333333333</v>
+        <v>2.013924666666667</v>
       </c>
       <c r="H2">
-        <v>0.404995</v>
+        <v>6.041774</v>
       </c>
       <c r="I2">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218955</v>
       </c>
       <c r="J2">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218957</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.940154666666667</v>
+        <v>3.890652666666667</v>
       </c>
       <c r="N2">
-        <v>5.820464</v>
+        <v>11.671958</v>
       </c>
       <c r="O2">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="P2">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="Q2">
-        <v>0.2619176464088889</v>
+        <v>7.835481374832444</v>
       </c>
       <c r="R2">
-        <v>2.35725881768</v>
+        <v>70.51933237349201</v>
       </c>
       <c r="S2">
-        <v>1.783155054705429E-05</v>
+        <v>0.0004847885034481668</v>
       </c>
       <c r="T2">
-        <v>1.783155054705428E-05</v>
+        <v>0.0004847885034481669</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1349983333333333</v>
+        <v>2.013924666666667</v>
       </c>
       <c r="H3">
-        <v>0.404995</v>
+        <v>6.041774</v>
       </c>
       <c r="I3">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218955</v>
       </c>
       <c r="J3">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218957</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>5.352974</v>
       </c>
       <c r="O3">
-        <v>0.03791869646548077</v>
+        <v>0.02970262160118417</v>
       </c>
       <c r="P3">
-        <v>0.03791869646548075</v>
+        <v>0.02970262160118416</v>
       </c>
       <c r="Q3">
-        <v>0.2408808561255555</v>
+        <v>3.593495459541777</v>
       </c>
       <c r="R3">
-        <v>2.16792770513</v>
+        <v>32.341459135876</v>
       </c>
       <c r="S3">
-        <v>1.639935002743207E-05</v>
+        <v>0.0002223328985982427</v>
       </c>
       <c r="T3">
-        <v>1.639935002743207E-05</v>
+        <v>0.0002223328985982427</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1349983333333333</v>
+        <v>2.013924666666667</v>
       </c>
       <c r="H4">
-        <v>0.404995</v>
+        <v>6.041774</v>
       </c>
       <c r="I4">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218955</v>
       </c>
       <c r="J4">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218957</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.084400666666667</v>
+        <v>14.15274033333333</v>
       </c>
       <c r="N4">
-        <v>27.253202</v>
+        <v>42.458221</v>
       </c>
       <c r="O4">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491472</v>
       </c>
       <c r="P4">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491471</v>
       </c>
       <c r="Q4">
-        <v>1.226378949332222</v>
+        <v>28.50255285822822</v>
       </c>
       <c r="R4">
-        <v>11.03741054399</v>
+        <v>256.522975724054</v>
       </c>
       <c r="S4">
-        <v>8.349280212575511E-05</v>
+        <v>0.001763479393745379</v>
       </c>
       <c r="T4">
-        <v>8.349280212575509E-05</v>
+        <v>0.00176347939374538</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1349983333333333</v>
+        <v>2.013924666666667</v>
       </c>
       <c r="H5">
-        <v>0.404995</v>
+        <v>6.041774</v>
       </c>
       <c r="I5">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218955</v>
       </c>
       <c r="J5">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218957</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.348104</v>
+        <v>37.09331533333333</v>
       </c>
       <c r="N5">
-        <v>88.04431199999999</v>
+        <v>111.279946</v>
       </c>
       <c r="O5">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="P5">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="Q5">
-        <v>3.961945126493333</v>
+        <v>74.70314271824488</v>
       </c>
       <c r="R5">
-        <v>35.65750613844</v>
+        <v>672.328284464204</v>
       </c>
       <c r="S5">
-        <v>0.000269732206883956</v>
+        <v>0.004621952759351329</v>
       </c>
       <c r="T5">
-        <v>0.000269732206883956</v>
+        <v>0.00462195275935133</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1349983333333333</v>
+        <v>2.013924666666667</v>
       </c>
       <c r="H6">
-        <v>0.404995</v>
+        <v>6.041774</v>
       </c>
       <c r="I6">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218955</v>
       </c>
       <c r="J6">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218957</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.013948333333333</v>
+        <v>1.368174333333333</v>
       </c>
       <c r="N6">
-        <v>3.041845</v>
+        <v>4.104523</v>
       </c>
       <c r="O6">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="P6">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="Q6">
-        <v>0.1368813350861111</v>
+        <v>2.755400038200222</v>
       </c>
       <c r="R6">
-        <v>1.231932015775</v>
+        <v>24.798600343802</v>
       </c>
       <c r="S6">
-        <v>9.318984341077338E-06</v>
+        <v>0.0001704791571849882</v>
       </c>
       <c r="T6">
-        <v>9.318984341077335E-06</v>
+        <v>0.0001704791571849882</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1349983333333333</v>
+        <v>2.013924666666667</v>
       </c>
       <c r="H7">
-        <v>0.404995</v>
+        <v>6.041774</v>
       </c>
       <c r="I7">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218955</v>
       </c>
       <c r="J7">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218957</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.885660666666666</v>
+        <v>1.783761666666667</v>
       </c>
       <c r="N7">
-        <v>11.656982</v>
+        <v>5.351285</v>
       </c>
       <c r="O7">
-        <v>0.08257420308067495</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="P7">
-        <v>0.08257420308067492</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="Q7">
-        <v>0.5245577138988888</v>
+        <v>3.592361619954444</v>
       </c>
       <c r="R7">
-        <v>4.72101942509</v>
+        <v>32.33125457959</v>
       </c>
       <c r="S7">
-        <v>3.57122840651711E-05</v>
+        <v>0.0002222627468908493</v>
       </c>
       <c r="T7">
-        <v>3.571228406517108E-05</v>
+        <v>0.0002222627468908493</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,13 +918,13 @@
         <v>1.448602</v>
       </c>
       <c r="H8">
-        <v>4.345806</v>
+        <v>4.345806000000001</v>
       </c>
       <c r="I8">
-        <v>0.004640811301457914</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="J8">
-        <v>0.004640811301457913</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.940154666666667</v>
+        <v>3.890652666666667</v>
       </c>
       <c r="N8">
-        <v>5.820464</v>
+        <v>11.671958</v>
       </c>
       <c r="O8">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="P8">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="Q8">
-        <v>2.810511930442666</v>
+        <v>5.636007234238667</v>
       </c>
       <c r="R8">
-        <v>25.294607373984</v>
+        <v>50.724065108148</v>
       </c>
       <c r="S8">
-        <v>0.0001913417680630423</v>
+        <v>0.0003487049974090498</v>
       </c>
       <c r="T8">
-        <v>0.0001913417680630422</v>
+        <v>0.0003487049974090499</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,13 +980,13 @@
         <v>1.448602</v>
       </c>
       <c r="H9">
-        <v>4.345806</v>
+        <v>4.345806000000001</v>
       </c>
       <c r="I9">
-        <v>0.004640811301457914</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="J9">
-        <v>0.004640811301457913</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>5.352974</v>
       </c>
       <c r="O9">
-        <v>0.03791869646548077</v>
+        <v>0.02970262160118417</v>
       </c>
       <c r="P9">
-        <v>0.03791869646548075</v>
+        <v>0.02970262160118416</v>
       </c>
       <c r="Q9">
-        <v>2.584776280782666</v>
+        <v>2.584776280782667</v>
       </c>
       <c r="R9">
         <v>23.262986527044</v>
       </c>
       <c r="S9">
-        <v>0.0001759735150935554</v>
+        <v>0.0001599225069864637</v>
       </c>
       <c r="T9">
-        <v>0.0001759735150935553</v>
+        <v>0.0001599225069864637</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,13 +1042,13 @@
         <v>1.448602</v>
       </c>
       <c r="H10">
-        <v>4.345806</v>
+        <v>4.345806000000001</v>
       </c>
       <c r="I10">
-        <v>0.004640811301457914</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="J10">
-        <v>0.004640811301457913</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.084400666666667</v>
+        <v>14.15274033333333</v>
       </c>
       <c r="N10">
-        <v>27.253202</v>
+        <v>42.458221</v>
       </c>
       <c r="O10">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491472</v>
       </c>
       <c r="P10">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491471</v>
       </c>
       <c r="Q10">
-        <v>13.15968097453467</v>
+        <v>20.50168795234734</v>
       </c>
       <c r="R10">
-        <v>118.437128770812</v>
+        <v>184.515191571126</v>
       </c>
       <c r="S10">
-        <v>0.000895920987752736</v>
+        <v>0.001268458457766714</v>
       </c>
       <c r="T10">
-        <v>0.0008959209877527358</v>
+        <v>0.001268458457766715</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,13 +1104,13 @@
         <v>1.448602</v>
       </c>
       <c r="H11">
-        <v>4.345806</v>
+        <v>4.345806000000001</v>
       </c>
       <c r="I11">
-        <v>0.004640811301457914</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="J11">
-        <v>0.004640811301457913</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.348104</v>
+        <v>37.09331533333333</v>
       </c>
       <c r="N11">
-        <v>88.04431199999999</v>
+        <v>111.279946</v>
       </c>
       <c r="O11">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="P11">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="Q11">
-        <v>42.51372215060799</v>
+        <v>53.73345077849734</v>
       </c>
       <c r="R11">
-        <v>382.6234993554719</v>
+        <v>483.601057006476</v>
       </c>
       <c r="S11">
-        <v>0.002894366209631076</v>
+        <v>0.003324538460608682</v>
       </c>
       <c r="T11">
-        <v>0.002894366209631075</v>
+        <v>0.003324538460608683</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1166,13 +1166,13 @@
         <v>1.448602</v>
       </c>
       <c r="H12">
-        <v>4.345806</v>
+        <v>4.345806000000001</v>
       </c>
       <c r="I12">
-        <v>0.004640811301457914</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="J12">
-        <v>0.004640811301457913</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.013948333333333</v>
+        <v>1.368174333333333</v>
       </c>
       <c r="N12">
-        <v>3.041845</v>
+        <v>4.104523</v>
       </c>
       <c r="O12">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="P12">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="Q12">
-        <v>1.468807583563333</v>
+        <v>1.981940075615334</v>
       </c>
       <c r="R12">
-        <v>13.21926825207</v>
+        <v>17.837460680538</v>
       </c>
       <c r="S12">
-        <v>9.999752605182767E-05</v>
+        <v>0.0001226244715822646</v>
       </c>
       <c r="T12">
-        <v>9.999752605182761E-05</v>
+        <v>0.0001226244715822646</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1228,13 +1228,13 @@
         <v>1.448602</v>
       </c>
       <c r="H13">
-        <v>4.345806</v>
+        <v>4.345806000000001</v>
       </c>
       <c r="I13">
-        <v>0.004640811301457914</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="J13">
-        <v>0.004640811301457913</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.885660666666666</v>
+        <v>1.783761666666667</v>
       </c>
       <c r="N13">
-        <v>11.656982</v>
+        <v>5.351285</v>
       </c>
       <c r="O13">
-        <v>0.08257420308067495</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="P13">
-        <v>0.08257420308067492</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="Q13">
-        <v>5.628775813054666</v>
+        <v>2.583960717856667</v>
       </c>
       <c r="R13">
-        <v>50.65898231749199</v>
+        <v>23.25564646071</v>
       </c>
       <c r="S13">
-        <v>0.0003832112948656772</v>
+        <v>0.0001598720473514458</v>
       </c>
       <c r="T13">
-        <v>0.000383211294865677</v>
+        <v>0.0001598720473514458</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>63.544816</v>
+        <v>56.20026033333333</v>
       </c>
       <c r="H14">
-        <v>190.634448</v>
+        <v>168.600781</v>
       </c>
       <c r="I14">
-        <v>0.2035752402950318</v>
+        <v>0.2088834604604656</v>
       </c>
       <c r="J14">
-        <v>0.2035752402950319</v>
+        <v>0.2088834604604657</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.940154666666667</v>
+        <v>3.890652666666667</v>
       </c>
       <c r="N14">
-        <v>5.820464</v>
+        <v>11.671958</v>
       </c>
       <c r="O14">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="P14">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="Q14">
-        <v>123.2867713048747</v>
+        <v>218.6556927332442</v>
       </c>
       <c r="R14">
-        <v>1109.580941743872</v>
+        <v>1967.901234599198</v>
       </c>
       <c r="S14">
-        <v>0.008393456204451396</v>
+        <v>0.01352843060683536</v>
       </c>
       <c r="T14">
-        <v>0.008393456204451396</v>
+        <v>0.01352843060683537</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>63.544816</v>
+        <v>56.20026033333333</v>
       </c>
       <c r="H15">
-        <v>190.634448</v>
+        <v>168.600781</v>
       </c>
       <c r="I15">
-        <v>0.2035752402950318</v>
+        <v>0.2088834604604656</v>
       </c>
       <c r="J15">
-        <v>0.2035752402950319</v>
+        <v>0.2088834604604657</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>5.352974</v>
       </c>
       <c r="O15">
-        <v>0.03791869646548077</v>
+        <v>0.02970262160118417</v>
       </c>
       <c r="P15">
-        <v>0.03791869646548075</v>
+        <v>0.02970262160118416</v>
       </c>
       <c r="Q15">
-        <v>113.3845826275947</v>
+        <v>100.2795107858549</v>
       </c>
       <c r="R15">
-        <v>1020.461243648352</v>
+        <v>902.5155970726938</v>
       </c>
       <c r="S15">
-        <v>0.007719307744634621</v>
+        <v>0.006204386384803125</v>
       </c>
       <c r="T15">
-        <v>0.007719307744634619</v>
+        <v>0.006204386384803126</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>63.544816</v>
+        <v>56.20026033333333</v>
       </c>
       <c r="H16">
-        <v>190.634448</v>
+        <v>168.600781</v>
       </c>
       <c r="I16">
-        <v>0.2035752402950318</v>
+        <v>0.2088834604604656</v>
       </c>
       <c r="J16">
-        <v>0.2035752402950319</v>
+        <v>0.2088834604604657</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.084400666666667</v>
+        <v>14.15274033333333</v>
       </c>
       <c r="N16">
-        <v>27.253202</v>
+        <v>42.458221</v>
       </c>
       <c r="O16">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491472</v>
       </c>
       <c r="P16">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491471</v>
       </c>
       <c r="Q16">
-        <v>577.2665688336108</v>
+        <v>795.3876911634001</v>
       </c>
       <c r="R16">
-        <v>5195.399119502496</v>
+        <v>7158.4892204706</v>
       </c>
       <c r="S16">
-        <v>0.03930074258994939</v>
+        <v>0.04921137451729864</v>
       </c>
       <c r="T16">
-        <v>0.03930074258994939</v>
+        <v>0.04921137451729864</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>63.544816</v>
+        <v>56.20026033333333</v>
       </c>
       <c r="H17">
-        <v>190.634448</v>
+        <v>168.600781</v>
       </c>
       <c r="I17">
-        <v>0.2035752402950318</v>
+        <v>0.2088834604604656</v>
       </c>
       <c r="J17">
-        <v>0.2035752402950319</v>
+        <v>0.2088834604604657</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.348104</v>
+        <v>37.09331533333333</v>
       </c>
       <c r="N17">
-        <v>88.04431199999999</v>
+        <v>111.279946</v>
       </c>
       <c r="O17">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="P17">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="Q17">
-        <v>1864.919868628864</v>
+        <v>2084.653978359758</v>
       </c>
       <c r="R17">
-        <v>16784.27881765978</v>
+        <v>18761.88580523782</v>
       </c>
       <c r="S17">
-        <v>0.1269651486244145</v>
+        <v>0.1289794760564925</v>
       </c>
       <c r="T17">
-        <v>0.1269651486244145</v>
+        <v>0.1289794760564925</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>63.544816</v>
+        <v>56.20026033333333</v>
       </c>
       <c r="H18">
-        <v>190.634448</v>
+        <v>168.600781</v>
       </c>
       <c r="I18">
-        <v>0.2035752402950318</v>
+        <v>0.2088834604604656</v>
       </c>
       <c r="J18">
-        <v>0.2035752402950319</v>
+        <v>0.2088834604604657</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.013948333333333</v>
+        <v>1.368174333333333</v>
       </c>
       <c r="N18">
-        <v>3.041845</v>
+        <v>4.104523</v>
       </c>
       <c r="O18">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="P18">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="Q18">
-        <v>64.43116027517334</v>
+        <v>76.89175371471811</v>
       </c>
       <c r="R18">
-        <v>579.8804424765601</v>
+        <v>692.025783432463</v>
       </c>
       <c r="S18">
-        <v>0.004386521897262737</v>
+        <v>0.004757364152583457</v>
       </c>
       <c r="T18">
-        <v>0.004386521897262736</v>
+        <v>0.004757364152583458</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>63.544816</v>
+        <v>56.20026033333333</v>
       </c>
       <c r="H19">
-        <v>190.634448</v>
+        <v>168.600781</v>
       </c>
       <c r="I19">
-        <v>0.2035752402950318</v>
+        <v>0.2088834604604656</v>
       </c>
       <c r="J19">
-        <v>0.2035752402950319</v>
+        <v>0.2088834604604657</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.885660666666666</v>
+        <v>1.783761666666667</v>
       </c>
       <c r="N19">
-        <v>11.656982</v>
+        <v>5.351285</v>
       </c>
       <c r="O19">
-        <v>0.08257420308067495</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="P19">
-        <v>0.08257420308067492</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="Q19">
-        <v>246.9135921017707</v>
+        <v>100.2478700392872</v>
       </c>
       <c r="R19">
-        <v>2222.222328915936</v>
+        <v>902.2308303535849</v>
       </c>
       <c r="S19">
-        <v>0.01681006323431916</v>
+        <v>0.006202428742452549</v>
       </c>
       <c r="T19">
-        <v>0.01681006323431916</v>
+        <v>0.00620242874245255</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.406739</v>
+        <v>2.421589666666667</v>
       </c>
       <c r="H20">
-        <v>7.220217</v>
+        <v>7.264769</v>
       </c>
       <c r="I20">
-        <v>0.00771034525070345</v>
+        <v>0.00900049263808521</v>
       </c>
       <c r="J20">
-        <v>0.00771034525070345</v>
+        <v>0.009000492638085212</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.940154666666667</v>
+        <v>3.890652666666667</v>
       </c>
       <c r="N20">
-        <v>5.820464</v>
+        <v>11.671958</v>
       </c>
       <c r="O20">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="P20">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="Q20">
-        <v>4.669445902298667</v>
+        <v>9.42156429418911</v>
       </c>
       <c r="R20">
-        <v>42.025013120688</v>
+        <v>84.79407864770201</v>
       </c>
       <c r="S20">
-        <v>0.0003178993923287959</v>
+        <v>0.0005829209254445194</v>
       </c>
       <c r="T20">
-        <v>0.0003178993923287958</v>
+        <v>0.0005829209254445195</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.406739</v>
+        <v>2.421589666666667</v>
       </c>
       <c r="H21">
-        <v>7.220217</v>
+        <v>7.264769</v>
       </c>
       <c r="I21">
-        <v>0.00771034525070345</v>
+        <v>0.00900049263808521</v>
       </c>
       <c r="J21">
-        <v>0.00771034525070345</v>
+        <v>0.009000492638085212</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>5.352974</v>
       </c>
       <c r="O21">
-        <v>0.03791869646548077</v>
+        <v>0.02970262160118417</v>
       </c>
       <c r="P21">
-        <v>0.03791869646548075</v>
+        <v>0.02970262160118416</v>
       </c>
       <c r="Q21">
-        <v>4.294403763928666</v>
+        <v>4.320902174778444</v>
       </c>
       <c r="R21">
-        <v>38.649633875358</v>
+        <v>38.888119573006</v>
       </c>
       <c r="S21">
-        <v>0.0002923662412054853</v>
+        <v>0.0002673382270532888</v>
       </c>
       <c r="T21">
-        <v>0.0002923662412054852</v>
+        <v>0.0002673382270532889</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.406739</v>
+        <v>2.421589666666667</v>
       </c>
       <c r="H22">
-        <v>7.220217</v>
+        <v>7.264769</v>
       </c>
       <c r="I22">
-        <v>0.00771034525070345</v>
+        <v>0.00900049263808521</v>
       </c>
       <c r="J22">
-        <v>0.00771034525070345</v>
+        <v>0.009000492638085212</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.084400666666667</v>
+        <v>14.15274033333333</v>
       </c>
       <c r="N22">
-        <v>27.253202</v>
+        <v>42.458221</v>
       </c>
       <c r="O22">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491472</v>
       </c>
       <c r="P22">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491471</v>
       </c>
       <c r="Q22">
-        <v>21.86378137609267</v>
+        <v>34.27212974621656</v>
       </c>
       <c r="R22">
-        <v>196.774032384834</v>
+        <v>308.449167715949</v>
       </c>
       <c r="S22">
-        <v>0.001488502695801215</v>
+        <v>0.002120448469575364</v>
       </c>
       <c r="T22">
-        <v>0.001488502695801215</v>
+        <v>0.002120448469575365</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.406739</v>
+        <v>2.421589666666667</v>
       </c>
       <c r="H23">
-        <v>7.220217</v>
+        <v>7.264769</v>
       </c>
       <c r="I23">
-        <v>0.00771034525070345</v>
+        <v>0.00900049263808521</v>
       </c>
       <c r="J23">
-        <v>0.00771034525070345</v>
+        <v>0.009000492638085212</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>29.348104</v>
+        <v>37.09331533333333</v>
       </c>
       <c r="N23">
-        <v>88.04431199999999</v>
+        <v>111.279946</v>
       </c>
       <c r="O23">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="P23">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="Q23">
-        <v>70.63322647285599</v>
+        <v>89.82478911360822</v>
       </c>
       <c r="R23">
-        <v>635.699038255704</v>
+        <v>808.423102022474</v>
       </c>
       <c r="S23">
-        <v>0.004808763233104252</v>
+        <v>0.005557543053679267</v>
       </c>
       <c r="T23">
-        <v>0.004808763233104252</v>
+        <v>0.005557543053679267</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.406739</v>
+        <v>2.421589666666667</v>
       </c>
       <c r="H24">
-        <v>7.220217</v>
+        <v>7.264769</v>
       </c>
       <c r="I24">
-        <v>0.00771034525070345</v>
+        <v>0.00900049263808521</v>
       </c>
       <c r="J24">
-        <v>0.00771034525070345</v>
+        <v>0.009000492638085212</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.013948333333333</v>
+        <v>1.368174333333333</v>
       </c>
       <c r="N24">
-        <v>3.041845</v>
+        <v>4.104523</v>
       </c>
       <c r="O24">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="P24">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="Q24">
-        <v>2.440308997818334</v>
+        <v>3.313156827798556</v>
       </c>
       <c r="R24">
-        <v>21.962780980365</v>
+        <v>29.818411450187</v>
       </c>
       <c r="S24">
-        <v>0.0001661380737099974</v>
+        <v>0.0002049880873173391</v>
       </c>
       <c r="T24">
-        <v>0.0001661380737099973</v>
+        <v>0.0002049880873173392</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.406739</v>
+        <v>2.421589666666667</v>
       </c>
       <c r="H25">
-        <v>7.220217</v>
+        <v>7.264769</v>
       </c>
       <c r="I25">
-        <v>0.00771034525070345</v>
+        <v>0.00900049263808521</v>
       </c>
       <c r="J25">
-        <v>0.00771034525070345</v>
+        <v>0.009000492638085212</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.885660666666666</v>
+        <v>1.783761666666667</v>
       </c>
       <c r="N25">
-        <v>11.656982</v>
+        <v>5.351285</v>
       </c>
       <c r="O25">
-        <v>0.08257420308067495</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="P25">
-        <v>0.08257420308067492</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="Q25">
-        <v>9.351771067232667</v>
+        <v>4.319538819796112</v>
       </c>
       <c r="R25">
-        <v>84.165939605094</v>
+        <v>38.875849378165</v>
       </c>
       <c r="S25">
-        <v>0.0006366756145537043</v>
+        <v>0.0002672538750154323</v>
       </c>
       <c r="T25">
-        <v>0.0006366756145537041</v>
+        <v>0.0002672538750154323</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>164.0922063333333</v>
+        <v>181.9836886666667</v>
       </c>
       <c r="H26">
-        <v>492.276619</v>
+        <v>545.951066</v>
       </c>
       <c r="I26">
-        <v>0.5256937141001443</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="J26">
-        <v>0.5256937141001443</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.940154666666667</v>
+        <v>3.890652666666667</v>
       </c>
       <c r="N26">
-        <v>5.820464</v>
+        <v>11.671958</v>
       </c>
       <c r="O26">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="P26">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="Q26">
-        <v>318.3642598812463</v>
+        <v>708.0353236008031</v>
       </c>
       <c r="R26">
-        <v>2865.278338931216</v>
+        <v>6372.317912407228</v>
       </c>
       <c r="S26">
-        <v>0.02167447848697265</v>
+        <v>0.04380680247921743</v>
       </c>
       <c r="T26">
-        <v>0.02167447848697264</v>
+        <v>0.04380680247921743</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>164.0922063333333</v>
+        <v>181.9836886666667</v>
       </c>
       <c r="H27">
-        <v>492.276619</v>
+        <v>545.951066</v>
       </c>
       <c r="I27">
-        <v>0.5256937141001443</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="J27">
-        <v>0.5256937141001443</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>5.352974</v>
       </c>
       <c r="O27">
-        <v>0.03791869646548077</v>
+        <v>0.02970262160118417</v>
       </c>
       <c r="P27">
-        <v>0.03791869646548075</v>
+        <v>0.02970262160118416</v>
       </c>
       <c r="Q27">
-        <v>292.7937713683229</v>
+        <v>324.7179846189204</v>
       </c>
       <c r="R27">
-        <v>2635.143942314906</v>
+        <v>2922.461861570284</v>
       </c>
       <c r="S27">
-        <v>0.0199336203787746</v>
+        <v>0.02009060302430718</v>
       </c>
       <c r="T27">
-        <v>0.01993362037877459</v>
+        <v>0.02009060302430718</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>164.0922063333333</v>
+        <v>181.9836886666667</v>
       </c>
       <c r="H28">
-        <v>492.276619</v>
+        <v>545.951066</v>
       </c>
       <c r="I28">
-        <v>0.5256937141001443</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="J28">
-        <v>0.5256937141001443</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>9.084400666666667</v>
+        <v>14.15274033333333</v>
       </c>
       <c r="N28">
-        <v>27.253202</v>
+        <v>42.458221</v>
       </c>
       <c r="O28">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491472</v>
       </c>
       <c r="P28">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491471</v>
       </c>
       <c r="Q28">
-        <v>1490.679348609338</v>
+        <v>2575.56789060151</v>
       </c>
       <c r="R28">
-        <v>13416.11413748404</v>
+        <v>23180.11101541359</v>
       </c>
       <c r="S28">
-        <v>0.1014865722818868</v>
+        <v>0.1593527753412034</v>
       </c>
       <c r="T28">
-        <v>0.1014865722818868</v>
+        <v>0.1593527753412034</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>164.0922063333333</v>
+        <v>181.9836886666667</v>
       </c>
       <c r="H29">
-        <v>492.276619</v>
+        <v>545.951066</v>
       </c>
       <c r="I29">
-        <v>0.5256937141001443</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="J29">
-        <v>0.5256937141001443</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>29.348104</v>
+        <v>37.09331533333333</v>
       </c>
       <c r="N29">
-        <v>88.04431199999999</v>
+        <v>111.279946</v>
       </c>
       <c r="O29">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="P29">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="Q29">
-        <v>4815.795137060125</v>
+        <v>6750.378349235825</v>
       </c>
       <c r="R29">
-        <v>43342.15623354113</v>
+        <v>60753.40514312243</v>
       </c>
       <c r="S29">
-        <v>0.3278629584074925</v>
+        <v>0.4176521723536</v>
       </c>
       <c r="T29">
-        <v>0.3278629584074925</v>
+        <v>0.4176521723536</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>164.0922063333333</v>
+        <v>181.9836886666667</v>
       </c>
       <c r="H30">
-        <v>492.276619</v>
+        <v>545.951066</v>
       </c>
       <c r="I30">
-        <v>0.5256937141001443</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="J30">
-        <v>0.5256937141001443</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.013948333333333</v>
+        <v>1.368174333333333</v>
       </c>
       <c r="N30">
-        <v>3.041845</v>
+        <v>4.104523</v>
       </c>
       <c r="O30">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="P30">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="Q30">
-        <v>166.3810191246728</v>
+        <v>248.9854119190576</v>
       </c>
       <c r="R30">
-        <v>1497.429172122055</v>
+        <v>2240.868707271518</v>
       </c>
       <c r="S30">
-        <v>0.01132734503867824</v>
+        <v>0.015404958476753</v>
       </c>
       <c r="T30">
-        <v>0.01132734503867824</v>
+        <v>0.015404958476753</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>164.0922063333333</v>
+        <v>181.9836886666667</v>
       </c>
       <c r="H31">
-        <v>492.276619</v>
+        <v>545.951066</v>
       </c>
       <c r="I31">
-        <v>0.5256937141001443</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="J31">
-        <v>0.5256937141001443</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>3.885660666666666</v>
+        <v>1.783761666666667</v>
       </c>
       <c r="N31">
-        <v>11.656982</v>
+        <v>5.351285</v>
       </c>
       <c r="O31">
-        <v>0.08257420308067495</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="P31">
-        <v>0.08257420308067492</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="Q31">
-        <v>637.6066318559842</v>
+        <v>324.6155278022011</v>
       </c>
       <c r="R31">
-        <v>5738.459686703858</v>
+        <v>2921.53975021981</v>
       </c>
       <c r="S31">
-        <v>0.0434087395063396</v>
+        <v>0.02008426392598388</v>
       </c>
       <c r="T31">
-        <v>0.04340873950633958</v>
+        <v>0.02008426392598388</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>80.516767</v>
+        <v>24.982726</v>
       </c>
       <c r="H32">
-        <v>241.550301</v>
+        <v>74.948178</v>
       </c>
       <c r="I32">
-        <v>0.257947401874672</v>
+        <v>0.09285505489946065</v>
       </c>
       <c r="J32">
-        <v>0.257947401874672</v>
+        <v>0.09285505489946067</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.940154666666667</v>
+        <v>3.890652666666667</v>
       </c>
       <c r="N32">
-        <v>5.820464</v>
+        <v>11.671958</v>
       </c>
       <c r="O32">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="P32">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="Q32">
-        <v>156.2149812399627</v>
+        <v>97.19910953250266</v>
       </c>
       <c r="R32">
-        <v>1405.934831159664</v>
+        <v>874.791985792524</v>
       </c>
       <c r="S32">
-        <v>0.01063523352618595</v>
+        <v>0.006013799100857931</v>
       </c>
       <c r="T32">
-        <v>0.01063523352618595</v>
+        <v>0.006013799100857932</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>80.516767</v>
+        <v>24.982726</v>
       </c>
       <c r="H33">
-        <v>241.550301</v>
+        <v>74.948178</v>
       </c>
       <c r="I33">
-        <v>0.257947401874672</v>
+        <v>0.09285505489946065</v>
       </c>
       <c r="J33">
-        <v>0.257947401874672</v>
+        <v>0.09285505489946067</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>5.352974</v>
       </c>
       <c r="O33">
-        <v>0.03791869646548077</v>
+        <v>0.02970262160118417</v>
       </c>
       <c r="P33">
-        <v>0.03791869646548075</v>
+        <v>0.02970262160118416</v>
       </c>
       <c r="Q33">
-        <v>143.6680534383527</v>
+        <v>44.57729424237466</v>
       </c>
       <c r="R33">
-        <v>1293.012480945174</v>
+        <v>401.195648181372</v>
       </c>
       <c r="S33">
-        <v>0.009781029235745073</v>
+        <v>0.002758038559435862</v>
       </c>
       <c r="T33">
-        <v>0.009781029235745069</v>
+        <v>0.002758038559435862</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>80.516767</v>
+        <v>24.982726</v>
       </c>
       <c r="H34">
-        <v>241.550301</v>
+        <v>74.948178</v>
       </c>
       <c r="I34">
-        <v>0.257947401874672</v>
+        <v>0.09285505489946065</v>
       </c>
       <c r="J34">
-        <v>0.257947401874672</v>
+        <v>0.09285505489946067</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>9.084400666666667</v>
+        <v>14.15274033333333</v>
       </c>
       <c r="N34">
-        <v>27.253202</v>
+        <v>42.458221</v>
       </c>
       <c r="O34">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491472</v>
       </c>
       <c r="P34">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491471</v>
       </c>
       <c r="Q34">
-        <v>731.4465718126447</v>
+        <v>353.5740338968154</v>
       </c>
       <c r="R34">
-        <v>6583.019146313803</v>
+        <v>3182.166305071338</v>
       </c>
       <c r="S34">
-        <v>0.04979743326413805</v>
+        <v>0.02187595356955768</v>
       </c>
       <c r="T34">
-        <v>0.04979743326413804</v>
+        <v>0.02187595356955768</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>80.516767</v>
+        <v>24.982726</v>
       </c>
       <c r="H35">
-        <v>241.550301</v>
+        <v>74.948178</v>
       </c>
       <c r="I35">
-        <v>0.257947401874672</v>
+        <v>0.09285505489946065</v>
       </c>
       <c r="J35">
-        <v>0.257947401874672</v>
+        <v>0.09285505489946067</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>29.348104</v>
+        <v>37.09331533333333</v>
       </c>
       <c r="N35">
-        <v>88.04431199999999</v>
+        <v>111.279946</v>
       </c>
       <c r="O35">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="P35">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="Q35">
-        <v>2363.014451659768</v>
+        <v>926.6921334042652</v>
       </c>
       <c r="R35">
-        <v>21267.13006493791</v>
+        <v>8340.229200638387</v>
       </c>
       <c r="S35">
-        <v>0.1608758028178468</v>
+        <v>0.05733530220022373</v>
       </c>
       <c r="T35">
-        <v>0.1608758028178468</v>
+        <v>0.05733530220022374</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>80.516767</v>
+        <v>24.982726</v>
       </c>
       <c r="H36">
-        <v>241.550301</v>
+        <v>74.948178</v>
       </c>
       <c r="I36">
-        <v>0.257947401874672</v>
+        <v>0.09285505489946065</v>
       </c>
       <c r="J36">
-        <v>0.257947401874672</v>
+        <v>0.09285505489946067</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.013948333333333</v>
+        <v>1.368174333333333</v>
       </c>
       <c r="N36">
-        <v>3.041845</v>
+        <v>4.104523</v>
       </c>
       <c r="O36">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="P36">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="Q36">
-        <v>81.63984170503835</v>
+        <v>34.18072448989933</v>
       </c>
       <c r="R36">
-        <v>734.7585753453451</v>
+        <v>307.626520409094</v>
       </c>
       <c r="S36">
-        <v>0.005558101884224541</v>
+        <v>0.002114793141549233</v>
       </c>
       <c r="T36">
-        <v>0.005558101884224539</v>
+        <v>0.002114793141549233</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>80.516767</v>
+        <v>24.982726</v>
       </c>
       <c r="H37">
-        <v>241.550301</v>
+        <v>74.948178</v>
       </c>
       <c r="I37">
-        <v>0.257947401874672</v>
+        <v>0.09285505489946065</v>
       </c>
       <c r="J37">
-        <v>0.257947401874672</v>
+        <v>0.09285505489946067</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>3.885660666666666</v>
+        <v>1.783761666666667</v>
       </c>
       <c r="N37">
-        <v>11.656982</v>
+        <v>5.351285</v>
       </c>
       <c r="O37">
-        <v>0.08257420308067495</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="P37">
-        <v>0.08257420308067492</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="Q37">
-        <v>312.8608345390646</v>
+        <v>44.56322896763667</v>
       </c>
       <c r="R37">
-        <v>2815.747510851582</v>
+        <v>401.06906070873</v>
       </c>
       <c r="S37">
-        <v>0.02129980114653164</v>
+        <v>0.002757168327836215</v>
       </c>
       <c r="T37">
-        <v>0.02129980114653163</v>
+        <v>0.002757168327836215</v>
       </c>
     </row>
   </sheetData>
